--- a/raw data used/live births/Merged births.xlsx
+++ b/raw data used/live births/Merged births.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipssalawu/Desktop/Test_repo/raw data used/live births/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A1B32-B931-D74F-AF2A-21CADE1A8F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613ABD45-270B-FA41-B991-71B70206692E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="760" windowWidth="23840" windowHeight="15080" activeTab="1" xr2:uid="{5B410429-D6F6-664D-B2FE-C40595BD7B63}"/>
+    <workbookView xWindow="1200" yWindow="760" windowWidth="23840" windowHeight="15080" xr2:uid="{5B410429-D6F6-664D-B2FE-C40595BD7B63}"/>
   </bookViews>
   <sheets>
     <sheet name="merge complete" sheetId="3" r:id="rId1"/>
@@ -2977,8 +2977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49374647-B78D-4B4A-A85E-0912BDBC068E}">
   <dimension ref="A1:BJ388"/>
   <sheetViews>
-    <sheetView topLeftCell="AU363" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3345,7 +3345,7 @@
         <v>42095</v>
       </c>
       <c r="K1" s="32">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="L1" s="32">
         <v>42156</v>
@@ -3381,7 +3381,7 @@
         <v>42461</v>
       </c>
       <c r="W1" s="40">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="X1" s="40">
         <v>42522</v>
@@ -3417,7 +3417,7 @@
         <v>42826</v>
       </c>
       <c r="AI1" s="54">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="AJ1" s="54">
         <v>42887</v>
@@ -3453,7 +3453,7 @@
         <v>43191</v>
       </c>
       <c r="AU1" s="40">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="AV1" s="40">
         <v>43252</v>
@@ -3489,7 +3489,7 @@
         <v>43556</v>
       </c>
       <c r="BG1" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="BH1" s="2">
         <v>43617</v>
@@ -75903,7 +75903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D52AFB0-D69C-964B-9214-881633FA48ED}">
   <dimension ref="A3:AL58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
